--- a/biology/Botanique/Aménagement_paysager/Aménagement_paysager.xlsx
+++ b/biology/Botanique/Aménagement_paysager/Aménagement_paysager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9nagement_paysager</t>
+          <t>Aménagement_paysager</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aménagement paysager est une discipline technique, artistique et scientifique, qui consiste à la requalification sanitaire et esthétique d'un sol, en vue de lui adjoindre une plus-value répondant à des besoins sociaux. Celle-ci s'exécute autant par l'entretien des sols et des végétaux, que par leur conception et leur création, afin d'agencer les espaces verts selon les attentes des populations.
 Aménagement extérieur est un synonyme de aménagement paysager.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9nagement_paysager</t>
+          <t>Aménagement_paysager</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9nagement_paysager</t>
+          <t>Aménagement_paysager</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Description de la discipline</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette discipline est une synthèse des domaines des sciences naturelles (botanique, pédologie, agronomie) avec les techniques de chantier. Dans le cadre des études paysagères, c'est une synthèse des disciplines de l'aménagement et de l'architecture. Elle répond à un désir social auquel répondent des acteurs publics et privés. Les domaines de l'écologie et du développement durable sont de plus en plus impliqués dans l'élaboration de projets d'aménagements paysagers.
 Les aménagements paysagers traitent, des éléments vivants, tels que la flore ou la faune à travers le jardinage ; des éléments naturels tels que les reliefs, les plans d'eau, etc. ; et des éléments de mobilier urbain (éclairage, banc, fontaine, etc.).
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Am%C3%A9nagement_paysager</t>
+          <t>Aménagement_paysager</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,12 +586,12 @@
           <t>Échelles d'intervention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les échelles d'interventions sont, par ordre croissant, le jardin, l'espace public, le paysage.
-Le jardin
-L'espace public
-Le paysage</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les échelles d'interventions sont, par ordre croissant, le jardin, l'espace public, le paysage.
+</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Am%C3%A9nagement_paysager</t>
+          <t>Aménagement_paysager</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,8 +621,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>France
-Les formations se répartissent en fonction du « titre » délivré.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les formations se répartissent en fonction du « titre » délivré.
 Les formations de paysagiste-concepteur ou paysagiste DE (ex-paysagiste DPLG issu d'écoles supérieures du paysage) sont dispensées dans les établissements suivants :
 École nationale supérieure du paysage (ENSP) de Versailles et Marseille,
 École nationale supérieure d'architecture et de paysage de Bordeaux (ENSAPBX),
@@ -617,7 +638,7 @@
 Les formations de concepteur/dessinateur paysagiste sont dispensées dans les établissements suivants :
 École supérieure d'architecture des jardins et des paysages (ESAJ) de Paris,
 Brevet de technicien supérieur agricole - Aménagements paysagers.
-Les formations de jardinier[1] sont dispensées dans les établissements suivants :
+Les formations de jardinier sont dispensées dans les établissements suivants :
 Brevet de technicien supérieur agricole - Aménagements paysagers,
 Baccalauréat professionnel - Aménagements paysagers,
 Certificat d'aptitude professionnelle agricole - Travaux paysagers,
@@ -632,17 +653,119 @@
 École d'horticulture de Saint-Ilan à Langueux (Côtes-d'Armor, 22),
 Institut agricole privé de Genech (Nord, 59),
 École du Paysage et de l'Horticulture à Saint Gabriel Brécy (Calvados, 14),
-La Lande de la rencontre à Saint-Aubin-du-Cormier (Bretagne, 35).
-Belgique
-Institut Arthur Haulot à Bruxelles.
+La Lande de la rencontre à Saint-Aubin-du-Cormier (Bretagne, 35).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aménagement_paysager</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9nagement_paysager</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formations dans le monde francophone</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Institut Arthur Haulot à Bruxelles.
 Institut supérieur industriel de Gembloux à Gembloux.
-Gembloux Agro-Bio Tech à Gembloux.
-Suisse
-Haute École du paysage, d'ingénierie et d'architecture de Genève.
+Gembloux Agro-Bio Tech à Gembloux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aménagement_paysager</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9nagement_paysager</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formations dans le monde francophone</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Haute École du paysage, d'ingénierie et d'architecture de Genève.
 École d'ingénieurs de Lullier à Genève.
-Institut d'architecture de l'université de Genève à Genève.
-Canada
-École d'architecture et de paysage à Montréal.</t>
+Institut d'architecture de l'université de Genève à Genève.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aménagement_paysager</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9nagement_paysager</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formations dans le monde francophone</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>École d'architecture et de paysage à Montréal.</t>
         </is>
       </c>
     </row>
